--- a/data/trans_camb/P19C01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,03</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 11,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,93; 18,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,85; 37,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,82; 5,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 12,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,71; 34,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 6,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,35; 13,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,91; 33,44</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,8%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; 31,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,43; 51,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,71; 98,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,29; 12,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 28,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,15; 79,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 14,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,23; 33,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,48; 80,12</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 7,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 13,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,37; 40,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 8,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 12,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,03; 33,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 6,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 11,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,47; 35,13</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,54%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,35; 25,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,65; 43,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,37; 137,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,22; 24,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 33,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,61; 95,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 18,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,65; 34,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,12; 104,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,49</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 6,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,18; 16,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,21; 35,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 11,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,27; 21,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,22; 36,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 7,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,01; 16,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,97; 34,73</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,67%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,33; 22,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,29; 62,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,09; 134,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 40,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,19; 76,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,56; 128,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 26,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,56; 58,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,3; 122,68</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,63; 5,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,61; 22,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,86; 37,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 10,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,23; 21,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,19; 37,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 6,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,29; 19,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,8; 35,18</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,1%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,35%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,13; 25,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,36; 102,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,18; 167,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,47; 41,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,93; 81,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,17; 149,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 27,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,64; 77,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,85; 140,19</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,34</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>35,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,85</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,86; 6,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 16,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,95; 31,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 13,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,08; 25,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,42; 40,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 7,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,06; 19,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,89; 34,9</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,86%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,47%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,19; 27,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,41; 77,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,81; 145,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 74,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,63; 145,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>111,8; 226,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,23; 38,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,29; 92,25</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>95,11; 169,43</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,78</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,1</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,16</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,18</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,52; 0,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,31; 19,88</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,02; 30,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 7,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,42; 20,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,49; 30,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 3,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,34; 18,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,2; 28,58</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,81%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,29%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,89%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,83%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,42; 4,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,65; 118,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,53; 183,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,37; 48,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,8; 128,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,18; 185,12</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,52; 18,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,71; 109,45</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,27; 163,92</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,67</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,25</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 1,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,47; 13,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,83; 29,57</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 5,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 14,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,29; 28,68</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 3,03</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,64; 13,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,13; 28,46</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,66%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,53; 7,08</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,93; 48,48</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,93; 105,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 18,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,56; 48,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,12; 94,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 10,29</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,26; 44,75</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,48; 96,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,14</t>
+          <t>27,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,16</t>
+          <t>25,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,03</t>
+          <t>26,25</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,85; 37,16</t>
+          <t>16,47; 36,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,71; 34,31</t>
+          <t>16,24; 34,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,91; 33,44</t>
+          <t>18,87; 32,62</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>68,68%</t>
+          <t>66,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>60,8%</t>
+          <t>59,05%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,71; 98,81</t>
+          <t>37,15; 96,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,15; 79,06</t>
+          <t>34,01; 78,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,48; 80,12</t>
+          <t>40,38; 77,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,69</t>
+          <t>32,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,93</t>
+          <t>32,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,43</t>
+          <t>32,72</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,37; 40,81</t>
+          <t>25,24; 40,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,03; 33,95</t>
+          <t>24,17; 43,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,47; 35,13</t>
+          <t>27,16; 40,17</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>99,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,49%</t>
+          <t>83,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>91,98%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,37; 137,69</t>
+          <t>72,71; 139,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,61; 95,71</t>
+          <t>59,65; 122,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,12; 104,54</t>
+          <t>72,69; 120,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,45</t>
+          <t>30,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,6</t>
+          <t>31,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>30,99</t>
+          <t>30,97</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,21; 35,95</t>
+          <t>24,35; 36,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,22; 36,45</t>
+          <t>26,15; 36,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,97; 34,73</t>
+          <t>26,93; 34,82</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>101,48%</t>
+          <t>101,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>100,52%</t>
+          <t>100,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>100,67%</t>
+          <t>100,59%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72,09; 134,77</t>
+          <t>72,6; 134,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>75,56; 128,88</t>
+          <t>75,49; 128,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,3; 122,68</t>
+          <t>81,56; 122,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,11</t>
+          <t>17,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,69</t>
+          <t>29,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30,89</t>
+          <t>22,7</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 37,61</t>
+          <t>-6,27; 36,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,19; 37,34</t>
+          <t>20,65; 35,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,8; 35,18</t>
+          <t>1,62; 33,44</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>116,66%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>109,13%</t>
+          <t>102,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>112,35%</t>
+          <t>82,59%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,18; 167,88</t>
+          <t>-21,23; 149,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,17; 149,22</t>
+          <t>66,71; 139,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,85; 140,19</t>
+          <t>6,75; 124,79</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,34</t>
+          <t>25,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>35,08</t>
+          <t>34,89</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>30,22</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,95; 31,78</t>
+          <t>17,81; 31,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,42; 40,38</t>
+          <t>29,06; 40,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>25,89; 34,9</t>
+          <t>25,68; 34,71</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>164,11%</t>
+          <t>163,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>128,47%</t>
+          <t>127,7%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>56,81; 145,38</t>
+          <t>56,64; 145,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>111,8; 226,1</t>
+          <t>111,13; 225,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>95,11; 169,43</t>
+          <t>94,05; 168,54</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>13,44</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>25,78</t>
+          <t>27,92</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>15,1</t>
+          <t>14,19</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>23,16</t>
+          <t>14,02</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>14,39</t>
+          <t>14,14</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>24,18</t>
+          <t>19,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 0,86</t>
+          <t>-12,04; 2,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>7,31; 19,88</t>
+          <t>6,05; 22,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20,02; 30,76</t>
+          <t>20,68; 34,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,58</t>
+          <t>-4,04; 9,55</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,42; 20,63</t>
+          <t>6,73; 22,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,49; 30,11</t>
+          <t>-10,33; 34,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 3,18</t>
+          <t>-5,58; 4,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>10,34; 18,97</t>
+          <t>8,89; 20,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,2; 28,58</t>
+          <t>-0,73; 31,52</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-22,81%</t>
+          <t>-22,07%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>66,34%</t>
+          <t>64,98%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>127,29%</t>
+          <t>128,7%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>125,57%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>74,88%</t>
+          <t>67,51%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>125,83%</t>
+          <t>91,22%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 4,92</t>
+          <t>-46,71; 16,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>30,65; 118,41</t>
+          <t>25,1; 134,45</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>82,53; 183,15</t>
+          <t>76,62; 208,48</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 48,21</t>
+          <t>-18,22; 57,81</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>45,8; 128,9</t>
+          <t>27,39; 130,29</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>52,18; 185,12</t>
+          <t>-42,67; 176,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 18,7</t>
+          <t>-24,07; 24,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>48,71; 109,45</t>
+          <t>36,33; 112,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>77,27; 163,92</t>
+          <t>-1,26; 160,13</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>10,96</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>26,67</t>
+          <t>23,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>11,98</t>
+          <t>16,14</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>25,86</t>
+          <t>25,03</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>11,48</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>26,25</t>
+          <t>24,57</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,98</t>
+          <t>-12,2; 3,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,83</t>
+          <t>1,97; 20,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>22,83; 29,57</t>
+          <t>15,02; 31,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,53</t>
+          <t>-3,26; 10,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,53</t>
+          <t>7,23; 24,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>20,29; 28,68</t>
+          <t>18,51; 31,23</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,03</t>
+          <t>-5,0; 6,3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,64; 13,39</t>
+          <t>8,06; 21,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>23,13; 28,46</t>
+          <t>19,11; 29,57</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>-22,48%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>70,47%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>133,31%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>153,93%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>145,72%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-55,56; 28,67</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 155,33</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>60,3; 256,69</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-16,36; 92,53</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>36,36; 198,23</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>85,0; 270,11</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; 48,07</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>39,66; 155,9</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>90,74; 229,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>23,58</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>11,98</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>24,43</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>11,48</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>24,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 1,98</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>8,47; 13,83</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>11,03; 28,88</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 5,53</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 14,53</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>14,83; 28,97</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 3,03</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 13,39</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>16,41; 28,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-1,29%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>36,76%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>79,07%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>38,18%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>77,84%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>37,45%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>78,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-10,53; 7,08</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>26,93; 48,48</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>73,93; 105,07</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>38,74; 99,31</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>0,19; 18,34</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>28,56; 48,14</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>64,12; 94,59</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>47,34; 93,96</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-2,07; 10,29</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>30,26; 44,75</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>74,48; 96,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>54,1; 92,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P19C01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 11,73</t>
+          <t>-2,89; 11,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 18,95</t>
+          <t>4,15; 19,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,47; 36,56</t>
+          <t>16,03; 36,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 5,29</t>
+          <t>-9,15; 5,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 12,97</t>
+          <t>-1,18; 13,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 34,36</t>
+          <t>17,24; 33,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 6,15</t>
+          <t>-4,22; 6,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 13,81</t>
+          <t>3,45; 13,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,87; 32,62</t>
+          <t>19,35; 32,48</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 31,67</t>
+          <t>-6,49; 30,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 51,73</t>
+          <t>9,23; 52,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,15; 96,36</t>
+          <t>36,03; 96,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 12,25</t>
+          <t>-17,87; 11,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 28,74</t>
+          <t>-2,38; 29,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,01; 78,15</t>
+          <t>33,89; 76,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 14,97</t>
+          <t>-9,02; 14,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 33,37</t>
+          <t>7,43; 32,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,38; 77,92</t>
+          <t>41,36; 76,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 7,4</t>
+          <t>-4,51; 7,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,21</t>
+          <t>0,98; 12,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,24; 40,8</t>
+          <t>25,02; 39,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 8,5</t>
+          <t>-3,61; 8,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 12,02</t>
+          <t>0,24; 12,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,17; 43,74</t>
+          <t>24,64; 44,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 6,15</t>
+          <t>-2,1; 6,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 11,4</t>
+          <t>2,65; 11,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,16; 40,17</t>
+          <t>27,43; 40,97</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 25,07</t>
+          <t>-12,27; 24,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 43,9</t>
+          <t>2,48; 43,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,71; 139,6</t>
+          <t>70,58; 131,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 24,39</t>
+          <t>-8,67; 24,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 33,7</t>
+          <t>0,52; 34,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,65; 122,16</t>
+          <t>57,94; 121,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 18,04</t>
+          <t>-5,81; 20,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 34,23</t>
+          <t>7,0; 34,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,69; 120,06</t>
+          <t>71,4; 118,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 6,12</t>
+          <t>-5,59; 5,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 16,8</t>
+          <t>4,8; 16,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,35; 36,01</t>
+          <t>24,35; 36,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 11,79</t>
+          <t>1,27; 12,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 21,64</t>
+          <t>9,82; 20,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,15; 36,29</t>
+          <t>26,11; 36,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,67</t>
+          <t>-0,46; 7,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 16,93</t>
+          <t>8,9; 17,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,93; 34,82</t>
+          <t>27,07; 35,1</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 22,93</t>
+          <t>-16,74; 21,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,29; 62,92</t>
+          <t>14,42; 62,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72,6; 134,52</t>
+          <t>73,64; 134,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 40,47</t>
+          <t>3,69; 42,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,19; 76,29</t>
+          <t>28,14; 73,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>75,49; 128,6</t>
+          <t>75,39; 127,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 26,92</t>
+          <t>-1,5; 25,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,56; 58,41</t>
+          <t>26,77; 58,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,56; 122,39</t>
+          <t>82,51; 125,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 5,82</t>
+          <t>-5,78; 6,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,61; 22,57</t>
+          <t>9,35; 22,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 36,67</t>
+          <t>-9,19; 36,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 10,68</t>
+          <t>-0,64; 11,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,23; 21,07</t>
+          <t>8,9; 20,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,65; 35,84</t>
+          <t>19,66; 35,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,83</t>
+          <t>-1,85; 7,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,29; 19,69</t>
+          <t>10,95; 20,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 33,44</t>
+          <t>0,6; 33,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 25,86</t>
+          <t>-20,2; 30,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,36; 102,83</t>
+          <t>31,16; 98,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 149,54</t>
+          <t>-29,37; 151,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 41,46</t>
+          <t>-1,62; 42,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,93; 81,78</t>
+          <t>28,06; 80,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,71; 139,07</t>
+          <t>64,43; 138,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 27,69</t>
+          <t>-6,1; 29,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,64; 77,93</t>
+          <t>36,27; 79,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,75; 124,79</t>
+          <t>3,36; 126,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 6,1</t>
+          <t>-8,11; 6,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,28; 16,87</t>
+          <t>2,19; 17,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,81; 31,76</t>
+          <t>18,21; 31,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,23; 13,31</t>
+          <t>-0,17; 13,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,08; 25,39</t>
+          <t>11,03; 24,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,06; 40,08</t>
+          <t>28,98; 40,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 7,97</t>
+          <t>-2,53; 7,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,06; 19,24</t>
+          <t>8,15; 18,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>25,68; 34,71</t>
+          <t>25,66; 34,54</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 27,44</t>
+          <t>-26,16; 28,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>6,41; 77,16</t>
+          <t>6,49; 74,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>56,64; 145,49</t>
+          <t>59,03; 148,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,98; 74,81</t>
+          <t>-0,85; 74,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>45,63; 145,58</t>
+          <t>43,07; 134,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>111,13; 225,99</t>
+          <t>112,5; 227,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 38,17</t>
+          <t>-9,31; 35,93</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>34,29; 92,25</t>
+          <t>30,67; 89,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94,05; 168,54</t>
+          <t>93,85; 166,96</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 2,98</t>
+          <t>-12,55; 1,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,05; 22,75</t>
+          <t>4,01; 21,71</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20,68; 34,97</t>
+          <t>19,74; 34,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 9,55</t>
+          <t>-4,52; 9,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,73; 22,07</t>
+          <t>7,06; 22,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 34,04</t>
+          <t>-9,08; 33,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 4,16</t>
+          <t>-5,69; 4,01</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,89; 20,25</t>
+          <t>8,12; 19,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 31,52</t>
+          <t>-0,8; 31,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,71; 16,69</t>
+          <t>-47,32; 10,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>25,1; 134,45</t>
+          <t>15,91; 121,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>76,62; 208,48</t>
+          <t>72,99; 206,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 57,81</t>
+          <t>-17,93; 54,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>27,39; 130,29</t>
+          <t>28,86; 131,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 176,96</t>
+          <t>-35,59; 176,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 24,24</t>
+          <t>-24,9; 21,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>36,33; 112,97</t>
+          <t>33,39; 110,51</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 160,13</t>
+          <t>-2,99; 158,39</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 3,38</t>
+          <t>-14,16; 3,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,97; 20,97</t>
+          <t>2,19; 21,82</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>15,02; 31,37</t>
+          <t>14,52; 30,91</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 10,85</t>
+          <t>-3,67; 10,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,23; 24,38</t>
+          <t>7,21; 25,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,51; 31,23</t>
+          <t>18,22; 30,87</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 6,3</t>
+          <t>-5,26; 6,06</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8,06; 21,05</t>
+          <t>8,13; 21,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,11; 29,57</t>
+          <t>19,81; 29,42</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 28,67</t>
+          <t>-60,77; 23,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>7,17; 155,33</t>
+          <t>8,31; 160,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>60,3; 256,69</t>
+          <t>56,84; 259,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 92,53</t>
+          <t>-18,41; 92,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>36,36; 198,23</t>
+          <t>34,01; 202,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>85,0; 270,11</t>
+          <t>80,5; 266,05</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 48,07</t>
+          <t>-25,64; 45,05</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>39,66; 155,9</t>
+          <t>39,81; 162,66</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>90,74; 229,05</t>
+          <t>99,47; 219,84</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 1,98</t>
+          <t>-3,08; 2,03</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,83</t>
+          <t>8,32; 13,67</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>11,03; 28,88</t>
+          <t>11,73; 28,69</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,53</t>
+          <t>0,37; 5,51</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,53</t>
+          <t>9,32; 14,7</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>14,83; 28,97</t>
+          <t>13,16; 29,07</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,03</t>
+          <t>-0,42; 3,1</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,64; 13,39</t>
+          <t>9,49; 13,31</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>16,41; 28,0</t>
+          <t>16,89; 27,91</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 7,08</t>
+          <t>-9,82; 7,14</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>26,93; 48,48</t>
+          <t>26,74; 47,87</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>38,74; 99,31</t>
+          <t>38,95; 98,94</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,19; 18,34</t>
+          <t>1,0; 18,41</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>28,56; 48,14</t>
+          <t>28,64; 48,73</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>47,34; 93,96</t>
+          <t>42,6; 94,76</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 10,29</t>
+          <t>-1,28; 10,51</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>30,26; 44,75</t>
+          <t>29,96; 44,95</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>54,1; 92,74</t>
+          <t>56,86; 92,73</t>
         </is>
       </c>
     </row>
